--- a/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>105.0715421059203</v>
+        <v>277.1561110698398</v>
       </c>
       <c r="R2">
-        <v>105.0715421059203</v>
+        <v>2494.404999628558</v>
       </c>
       <c r="S2">
-        <v>0.04169735818866264</v>
+        <v>0.0687982632012769</v>
       </c>
       <c r="T2">
-        <v>0.04169735818866264</v>
+        <v>0.0687982632012769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H3">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>534.4055661506681</v>
+        <v>912.9620377203853</v>
       </c>
       <c r="R3">
-        <v>534.4055661506681</v>
+        <v>8216.658339483467</v>
       </c>
       <c r="S3">
-        <v>0.2120774080515174</v>
+        <v>0.2266239135821681</v>
       </c>
       <c r="T3">
-        <v>0.2120774080515174</v>
+        <v>0.2266239135821681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H4">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>602.2100561488646</v>
+        <v>1089.528715243815</v>
       </c>
       <c r="R4">
-        <v>602.2100561488646</v>
+        <v>9805.758437194332</v>
       </c>
       <c r="S4">
-        <v>0.238985437091429</v>
+        <v>0.2704529336457772</v>
       </c>
       <c r="T4">
-        <v>0.238985437091429</v>
+        <v>0.2704529336457772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H5">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>268.4135080140317</v>
+        <v>458.9340175451809</v>
       </c>
       <c r="R5">
-        <v>268.4135080140317</v>
+        <v>4130.406157906628</v>
       </c>
       <c r="S5">
-        <v>0.1065191769532992</v>
+        <v>0.1139208629000303</v>
       </c>
       <c r="T5">
-        <v>0.1065191769532992</v>
+        <v>0.1139208629000303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H6">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>4.164501902129242</v>
+        <v>9.218365928906223</v>
       </c>
       <c r="R6">
-        <v>4.164501902129242</v>
+        <v>82.965293360156</v>
       </c>
       <c r="S6">
-        <v>0.001652671351443556</v>
+        <v>0.002288268380641124</v>
       </c>
       <c r="T6">
-        <v>0.001652671351443556</v>
+        <v>0.002288268380641124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H7">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>21.18112052166704</v>
+        <v>30.36562358455689</v>
       </c>
       <c r="R7">
-        <v>21.18112052166704</v>
+        <v>273.290612261012</v>
       </c>
       <c r="S7">
-        <v>0.008405670570046951</v>
+        <v>0.00753763702188338</v>
       </c>
       <c r="T7">
-        <v>0.008405670570046951</v>
+        <v>0.00753763702188338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>23.86854588833521</v>
+        <v>36.23832917989557</v>
       </c>
       <c r="R8">
-        <v>23.86854588833521</v>
+        <v>326.14496261906</v>
       </c>
       <c r="S8">
-        <v>0.009472168080917182</v>
+        <v>0.008995414531071732</v>
       </c>
       <c r="T8">
-        <v>0.009472168080917182</v>
+        <v>0.008995414531071732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>10.63854724388436</v>
+        <v>15.26439988865511</v>
       </c>
       <c r="R9">
-        <v>10.63854724388436</v>
+        <v>137.379598997896</v>
       </c>
       <c r="S9">
-        <v>0.004221878789863701</v>
+        <v>0.003789071065745356</v>
       </c>
       <c r="T9">
-        <v>0.004221878789863701</v>
+        <v>0.003789071065745357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H10">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>37.40227629042354</v>
+        <v>72.03379722367622</v>
       </c>
       <c r="R10">
-        <v>37.40227629042354</v>
+        <v>648.304175013086</v>
       </c>
       <c r="S10">
-        <v>0.01484299250106123</v>
+        <v>0.01788089795910395</v>
       </c>
       <c r="T10">
-        <v>0.01484299250106123</v>
+        <v>0.01788089795910395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H11">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>190.232143125472</v>
+        <v>237.2818771493469</v>
       </c>
       <c r="R11">
-        <v>190.232143125472</v>
+        <v>2135.536894344122</v>
       </c>
       <c r="S11">
-        <v>0.07549311309149237</v>
+        <v>0.05890031063720703</v>
       </c>
       <c r="T11">
-        <v>0.07549311309149237</v>
+        <v>0.05890031063720704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H12">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>214.3684812605618</v>
+        <v>283.1721452588456</v>
       </c>
       <c r="R12">
-        <v>214.3684812605618</v>
+        <v>2548.54930732961</v>
       </c>
       <c r="S12">
-        <v>0.08507155380350707</v>
+        <v>0.07029161906474839</v>
       </c>
       <c r="T12">
-        <v>0.08507155380350707</v>
+        <v>0.0702916190647484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H13">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>95.54705285187737</v>
+        <v>119.2784811104751</v>
       </c>
       <c r="R13">
-        <v>95.54705285187737</v>
+        <v>1073.506329994276</v>
       </c>
       <c r="S13">
-        <v>0.03791759030832124</v>
+        <v>0.02960841204623179</v>
       </c>
       <c r="T13">
-        <v>0.03791759030832124</v>
+        <v>0.0296084120462318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H14">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>28.6914934120661</v>
+        <v>49.29656950074288</v>
       </c>
       <c r="R14">
-        <v>28.6914934120661</v>
+        <v>443.6691255066859</v>
       </c>
       <c r="S14">
-        <v>0.0113861418019786</v>
+        <v>0.01223685218536469</v>
       </c>
       <c r="T14">
-        <v>0.0113861418019786</v>
+        <v>0.01223685218536469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H15">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>145.9281311882393</v>
+        <v>162.3846444168135</v>
       </c>
       <c r="R15">
-        <v>145.9281311882393</v>
+        <v>1461.461799751322</v>
       </c>
       <c r="S15">
-        <v>0.05791118540759774</v>
+        <v>0.04030862412995307</v>
       </c>
       <c r="T15">
-        <v>0.05791118540759774</v>
+        <v>0.04030862412995307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H16">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>164.4432499263904</v>
+        <v>193.7898025295122</v>
       </c>
       <c r="R16">
-        <v>164.4432499263904</v>
+        <v>1744.10822276561</v>
       </c>
       <c r="S16">
-        <v>0.06525886035798573</v>
+        <v>0.0481043040641787</v>
       </c>
       <c r="T16">
-        <v>0.06525886035798573</v>
+        <v>0.0481043040641787</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H17">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>73.29467372936001</v>
+        <v>81.62862657020843</v>
       </c>
       <c r="R17">
-        <v>73.29467372936001</v>
+        <v>734.6576391318758</v>
       </c>
       <c r="S17">
-        <v>0.0290867936508765</v>
+        <v>0.02026261558461833</v>
       </c>
       <c r="T17">
-        <v>0.0290867936508765</v>
+        <v>0.02026261558461833</v>
       </c>
     </row>
   </sheetData>
